--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrmd_extracted_properties.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrmd_extracted_properties.xlsx
@@ -2072,7 +2072,7 @@
         <v>547.0668505608598</v>
       </c>
       <c r="AB3">
-        <v>0.869423804096683</v>
+        <v>0.8694238040966833</v>
       </c>
       <c r="AC3">
         <v>0.56719</v>
@@ -2396,7 +2396,7 @@
         <v>202</v>
       </c>
       <c r="EF3">
-        <v>4.61244</v>
+        <v>4.612439999999999</v>
       </c>
       <c r="EG3">
         <v>0.2938055555555555</v>
@@ -2740,7 +2740,7 @@
         <v>1.7</v>
       </c>
       <c r="CK4">
-        <v>9.209992675346978</v>
+        <v>9.20999267534698</v>
       </c>
       <c r="CL4">
         <v>7.756457539799028</v>
@@ -2857,7 +2857,7 @@
         <v>0.001083710813624691</v>
       </c>
       <c r="DX4">
-        <v>7.811669884847241</v>
+        <v>7.811669884847245</v>
       </c>
       <c r="DY4">
         <v>0.008209709769673459</v>
@@ -2881,7 +2881,7 @@
         <v>203</v>
       </c>
       <c r="EF4">
-        <v>4.162059999999999</v>
+        <v>4.16206</v>
       </c>
       <c r="EG4">
         <v>0.2639444444444444</v>
@@ -3255,7 +3255,7 @@
         <v>6.29815713656938</v>
       </c>
       <c r="CU5">
-        <v>1.863355859278086</v>
+        <v>1.863355859278087</v>
       </c>
       <c r="CV5">
         <v>4.436496365376624</v>
@@ -3527,7 +3527,7 @@
         <v>635.4113857412038</v>
       </c>
       <c r="AB6">
-        <v>0.846277796827459</v>
+        <v>0.8462777968274593</v>
       </c>
       <c r="AC6">
         <v>0.45993</v>
@@ -4012,7 +4012,7 @@
         <v>634.9127927439674</v>
       </c>
       <c r="AB7">
-        <v>0.8468777226911463</v>
+        <v>0.8468777226911464</v>
       </c>
       <c r="AC7">
         <v>0.45993</v>
@@ -4497,7 +4497,7 @@
         <v>433.4619006277429</v>
       </c>
       <c r="AB8">
-        <v>0.9018376283153727</v>
+        <v>0.9018376283153726</v>
       </c>
       <c r="AC8">
         <v>0.36858</v>
@@ -4665,13 +4665,13 @@
         <v>4.419916575002755</v>
       </c>
       <c r="CF8">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="CG8">
         <v>1.729356706822647</v>
       </c>
       <c r="CH8">
-        <v>6.532890941731766</v>
+        <v>6.532890941731768</v>
       </c>
       <c r="CI8">
         <v>4.245053626364541</v>
@@ -4692,7 +4692,7 @@
         <v>4.419916575002755</v>
       </c>
       <c r="CO8">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="CP8">
         <v>1.729356706822647</v>
@@ -4797,7 +4797,7 @@
         <v>0.004333704919827257</v>
       </c>
       <c r="DX8">
-        <v>8.534704687675115</v>
+        <v>8.534704687675118</v>
       </c>
       <c r="DY8">
         <v>1.997836723101532</v>
@@ -5467,7 +5467,7 @@
         <v>443.7683474914424</v>
       </c>
       <c r="AB10">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="AC10">
         <v>0.30315</v>
@@ -5794,7 +5794,7 @@
         <v>1.26112</v>
       </c>
       <c r="EG10">
-        <v>0.08077777777777777</v>
+        <v>0.08077777777777778</v>
       </c>
       <c r="EH10" t="s">
         <v>214</v>
@@ -5952,7 +5952,7 @@
         <v>596.0480529227942</v>
       </c>
       <c r="AB11">
-        <v>0.8633487160331299</v>
+        <v>0.8633487160331301</v>
       </c>
       <c r="AC11">
         <v>0.42702</v>
@@ -6240,7 +6240,7 @@
         <v>1.552212366880609E-05</v>
       </c>
       <c r="DT11">
-        <v>2.810306854512629E-05</v>
+        <v>2.810205718863311E-05</v>
       </c>
       <c r="DU11">
         <v>4.21909345088788E-06</v>
@@ -6719,7 +6719,7 @@
         <v>7.149541084204371E-05</v>
       </c>
       <c r="DR12">
-        <v>4.371455198515299E-05</v>
+        <v>4.371390181445467E-05</v>
       </c>
       <c r="DS12">
         <v>6.570518316373855E-06</v>
@@ -6764,7 +6764,7 @@
         <v>3.97077</v>
       </c>
       <c r="EG12">
-        <v>0.2525833333333334</v>
+        <v>0.2525833333333333</v>
       </c>
       <c r="EH12" t="s">
         <v>214</v>
@@ -7683,7 +7683,7 @@
         <v>5.608029957123981</v>
       </c>
       <c r="DP14">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="DQ14">
         <v>0.0001042552352769579</v>
@@ -7695,7 +7695,7 @@
         <v>7.129435274898631E-06</v>
       </c>
       <c r="DT14">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="DU14">
         <v>1.22713652149821E-05</v>
